--- a/WebPage/Common/RptTemplet/0517Report.xlsx
+++ b/WebPage/Common/RptTemplet/0517Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1131C-0293-47B3-A015-80ABCD28CF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2659E-013E-4320-82D4-8458040C3F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -156,16 +156,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,62 +451,62 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="17.140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="17.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/WebPage/Common/RptTemplet/0517Report.xlsx
+++ b/WebPage/Common/RptTemplet/0517Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2659E-013E-4320-82D4-8458040C3F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98921BE-C102-435E-84F4-A4316865ABB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,11 +154,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -167,6 +164,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,62 +454,62 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="17.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="7" customWidth="1"/>
+    <col min="5" max="7" width="17.140625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
